--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2257541.006268476</v>
+        <v>2256814.407397251</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330302</v>
+        <v>5851605.6153303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.679312447</v>
+        <v>864456.6793124474</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7467034.155003894</v>
+        <v>7467034.155003895</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>221.7492090132059</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.1384206633766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>168.6906025002461</v>
+        <v>91.42297362470912</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>76.43104772188485</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>52.93214283165883</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>348.4271941735153</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -910,10 +910,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>317.115508304458</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1034,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>99.58627852305644</v>
       </c>
       <c r="T7" t="n">
-        <v>89.68860107366156</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>146.8130426564581</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>169.6561230108597</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>68.58775494387558</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
@@ -1593,10 +1593,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>55.53231768900866</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263987</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>93.42958653488587</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.6560068997763</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>134.5530939723424</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>92.62562335128862</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2067,7 +2067,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397591</v>
       </c>
       <c r="H20" t="n">
         <v>278.3004706722212</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.4226707784175</v>
+        <v>123.4333796630777</v>
       </c>
       <c r="C22" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2301,10 +2301,10 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>62.42766323312681</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.00416553883646</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9203488815319</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995112</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397595</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975945</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.429322727502</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W26" t="n">
-        <v>350.423756129845</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950527</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.3237676037658</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041765</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>36.85210292651264</v>
+        <v>41.27804906186174</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501623</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067268</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925753</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987848</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T29" t="n">
         <v>190.4854774862718</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.192300330007</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>38.77597185760948</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415078</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815319</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019341</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995112</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>375.142059539758</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975945</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.429322727502</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>316.840237390546</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>350.423756129845</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950527</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.3237676037658</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540256</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>52.63934564540765</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925753</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987848</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815327</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.07104175305501</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>74.6767850310828</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3517,13 +3517,13 @@
         <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397591</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1885574966858</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>191.4143963496224</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
         <v>246.7800261198764</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3796,7 +3796,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>294.1309698368488</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>156.1530315614878</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>123.2148172775827</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678444</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798624</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.4192906078699</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282721</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.641001266096</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609744</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.92826445384</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126097</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4898868230849</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V44" t="n">
-        <v>211.6544656203742</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.922697856183</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.6369638527369</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213907</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.2912668205695</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305145</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>48.01732390352659</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388887</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330648</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462142</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189133</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251228</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>967.0843695122696</v>
+        <v>290.556712115548</v>
       </c>
       <c r="C2" t="n">
-        <v>961.0001828659438</v>
+        <v>66.56761210220864</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994083</v>
+        <v>66.14408623567324</v>
       </c>
       <c r="E2" t="n">
-        <v>546.236441516305</v>
+        <v>55.84427479297401</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>38.85426678706563</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030193</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16638672030193</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>34.16638672030193</v>
+        <v>711.1608938517919</v>
       </c>
       <c r="L2" t="n">
-        <v>34.16638672030193</v>
+        <v>1133.969929515528</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8922290238874</v>
+        <v>1133.969929515528</v>
       </c>
       <c r="N2" t="n">
-        <v>862.7012646876237</v>
+        <v>1133.969929515528</v>
       </c>
       <c r="O2" t="n">
-        <v>1285.51030035136</v>
+        <v>1133.969929515528</v>
       </c>
       <c r="P2" t="n">
-        <v>1708.319336015096</v>
+        <v>1556.778965179263</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015096</v>
+        <v>1667.762690325529</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809197</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T2" t="n">
-        <v>1573.038260809197</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U2" t="n">
-        <v>1573.038260809197</v>
+        <v>1451.258844274604</v>
       </c>
       <c r="V2" t="n">
-        <v>1573.038260809197</v>
+        <v>1101.421289611085</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.038260809197</v>
+        <v>1101.421289611085</v>
       </c>
       <c r="X2" t="n">
-        <v>1172.39486297815</v>
+        <v>700.7778917800374</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.265145136355</v>
+        <v>700.7778917800374</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.6072548185567</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>341.6121835675024</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>341.6121835675024</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
         <v>341.6121835675024</v>
@@ -4400,61 +4400,61 @@
         <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006176</v>
+        <v>54.9149781000617</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030193</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J3" t="n">
-        <v>226.9792442829352</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466715</v>
+        <v>649.7882799466709</v>
       </c>
       <c r="L3" t="n">
-        <v>1072.597315610408</v>
+        <v>906.1063163047447</v>
       </c>
       <c r="M3" t="n">
-        <v>1495.406351274144</v>
+        <v>906.1063163047447</v>
       </c>
       <c r="N3" t="n">
-        <v>1495.406351274144</v>
+        <v>906.1063163047447</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.319336015096</v>
+        <v>906.1063163047447</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.319336015096</v>
+        <v>1328.915351968481</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015096</v>
+        <v>1678.759816652464</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T3" t="n">
-        <v>1548.977472202105</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U3" t="n">
-        <v>1378.582924222058</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1164.871397215092</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>951.6382289514206</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
-        <v>775.3122470903133</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>615.9102874541434</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.16638672030193</v>
+        <v>676.566174010391</v>
       </c>
       <c r="C4" t="n">
-        <v>34.16638672030193</v>
+        <v>676.566174010391</v>
       </c>
       <c r="D4" t="n">
-        <v>34.16638672030193</v>
+        <v>676.566174010391</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030193</v>
+        <v>515.6553588787106</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030193</v>
+        <v>351.0242329893018</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030193</v>
+        <v>183.7738419148452</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030193</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030193</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551245</v>
+        <v>48.2489361255124</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.698364127811</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
         <v>751.9624205683042</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1486.362204834198</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1486.362204834198</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1246.8134658109</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="U4" t="n">
-        <v>964.0153183570239</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="V4" t="n">
-        <v>964.0153183570239</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="W4" t="n">
-        <v>684.9456538658983</v>
+        <v>730.0329849514605</v>
       </c>
       <c r="X4" t="n">
-        <v>446.6017917255816</v>
+        <v>676.566174010391</v>
       </c>
       <c r="Y4" t="n">
-        <v>221.8660931143463</v>
+        <v>676.566174010391</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>881.5511617534476</v>
+        <v>1724.585946596976</v>
       </c>
       <c r="C5" t="n">
-        <v>875.4669751071217</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D5" t="n">
-        <v>875.0434492405863</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>864.743637797887</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,22 +4567,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1288.668610429443</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1288.668610429443</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1288.668610429443</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y5" t="n">
-        <v>887.731937377533</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.257211227551</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.949539715106</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="C7" t="n">
-        <v>484.8561672768225</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="D7" t="n">
-        <v>325.3615225997325</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1385.299063397512</v>
       </c>
       <c r="T7" t="n">
-        <v>1208.90494926671</v>
+        <v>1145.750324374214</v>
       </c>
       <c r="U7" t="n">
-        <v>1208.90494926671</v>
+        <v>1145.750324374214</v>
       </c>
       <c r="V7" t="n">
-        <v>935.0192042062316</v>
+        <v>871.8645793137357</v>
       </c>
       <c r="W7" t="n">
-        <v>655.949539715106</v>
+        <v>871.8645793137357</v>
       </c>
       <c r="X7" t="n">
-        <v>655.949539715106</v>
+        <v>871.8645793137357</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.949539715106</v>
+        <v>871.8645793137357</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1105.989063098952</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C8" t="n">
-        <v>1099.904876452626</v>
+        <v>327.2000148507626</v>
       </c>
       <c r="D8" t="n">
-        <v>695.440946545687</v>
+        <v>326.7764889842272</v>
       </c>
       <c r="E8" t="n">
-        <v>685.1411351029877</v>
+        <v>316.476677541528</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>299.4866695356196</v>
       </c>
       <c r="G8" t="n">
         <v>128.1168483125289</v>
@@ -4807,49 +4807,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1516.210242763442</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>1516.210242763442</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>1516.210242763442</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1516.210242763442</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="9">
@@ -4889,7 +4889,7 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
         <v>1192.007362767164</v>
@@ -4898,7 +4898,7 @@
         <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1222.741089393081</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C10" t="n">
-        <v>1051.647716954798</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D10" t="n">
-        <v>1051.647716954798</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E10" t="n">
-        <v>890.7369018231173</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F10" t="n">
-        <v>726.1057759337085</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1848.705542456804</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.907395002929</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1292.02164994245</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1292.02164994245</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>1222.741089393081</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y10" t="n">
-        <v>1222.741089393081</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>3958.227793985246</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N12" t="n">
-        <v>3958.227793985246</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O12" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.0568573512422</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C13" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751514</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187106</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X13" t="n">
-        <v>631.9956451277927</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.0568573512422</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5317,7 +5317,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
         <v>3092.177045180321</v>
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>1267.196293483926</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>2110.173374178493</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>2110.173374178493</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>937.258587584178</v>
+        <v>488.8895508847475</v>
       </c>
       <c r="C16" t="n">
-        <v>795.9621259805793</v>
+        <v>488.8895508847475</v>
       </c>
       <c r="D16" t="n">
-        <v>666.2643921381741</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059662</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1800.798405294154</v>
+        <v>1552.552075801921</v>
       </c>
       <c r="U16" t="n">
-        <v>1547.797168674963</v>
+        <v>1299.55083918273</v>
       </c>
       <c r="V16" t="n">
-        <v>1303.70833444917</v>
+        <v>1299.55083918273</v>
       </c>
       <c r="W16" t="n">
-        <v>1303.70833444917</v>
+        <v>1050.278085526289</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.161383143538</v>
+        <v>841.7311342206575</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.161383143538</v>
+        <v>646.792346444107</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674168</v>
@@ -5542,19 +5542,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035666</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176685</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
         <v>3092.177045180321</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3925.40297442786</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>4100.47899204261</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N18" t="n">
-        <v>4100.47899204261</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3127.54982020079</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C19" t="n">
-        <v>3127.54982020079</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D19" t="n">
-        <v>3033.988584492417</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E19" t="n">
-        <v>3033.988584492417</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F19" t="n">
-        <v>2899.154369437693</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G19" t="n">
-        <v>2899.154369437693</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H19" t="n">
-        <v>2899.154369437693</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I19" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q19" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>4450.114219755819</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>4240.362391567206</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U19" t="n">
-        <v>3987.361154948015</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V19" t="n">
-        <v>3743.272320722222</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W19" t="n">
-        <v>3493.999567065781</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X19" t="n">
-        <v>3285.452615760149</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="Y19" t="n">
-        <v>3285.452615760149</v>
+        <v>1109.911388282645</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5782,22 +5782,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>524.2254458227151</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
         <v>1228.182536368609</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3779.909843896035</v>
+        <v>371.9936395339932</v>
       </c>
       <c r="C22" t="n">
-        <v>3638.613382292437</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D22" t="n">
-        <v>3508.915648450031</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E22" t="n">
-        <v>3377.801744153036</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F22" t="n">
-        <v>3242.967529098312</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G22" t="n">
-        <v>3105.51404885854</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>2985.703504498682</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T22" t="n">
-        <v>4606.709077041224</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U22" t="n">
-        <v>4353.707840422033</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V22" t="n">
-        <v>4109.61900619624</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W22" t="n">
-        <v>4109.61900619624</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X22" t="n">
-        <v>4109.61900619624</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y22" t="n">
-        <v>3914.680218419689</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764625</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.415015250871</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C25" t="n">
-        <v>560.415015250871</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7172814084659</v>
+        <v>344.168146347477</v>
       </c>
       <c r="E25" t="n">
-        <v>299.6033771114702</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F25" t="n">
-        <v>299.6033771114702</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114702</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6174,25 +6174,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1489.927527310052</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.927527310052</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V25" t="n">
-        <v>1245.838693084259</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W25" t="n">
-        <v>996.5659394278182</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X25" t="n">
-        <v>788.0189881221864</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y25" t="n">
-        <v>718.3178108102304</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489461</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764618</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6311,19 +6311,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>536.296454581767</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C28" t="n">
-        <v>394.9999929781684</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3022591357634</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3022591357634</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="F28" t="n">
-        <v>130.4680440810396</v>
+        <v>272.3921769827801</v>
       </c>
       <c r="G28" t="n">
-        <v>130.4680440810396</v>
+        <v>134.9386967430084</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362207</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.387532025356</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749241</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672485</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.274212784071</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294155</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.798405294155</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1591.046577105542</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U28" t="n">
-        <v>1591.046577105542</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V28" t="n">
-        <v>1346.957742879749</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W28" t="n">
-        <v>1097.684989223308</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X28" t="n">
-        <v>889.1380379176767</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y28" t="n">
-        <v>694.1992501411264</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G29" t="n">
         <v>430.910136076462</v>
@@ -6463,10 +6463,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6499,7 +6499,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3159.966007577094</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="C31" t="n">
-        <v>3159.966007577094</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="D31" t="n">
-        <v>3030.268273734689</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="E31" t="n">
-        <v>2899.154369437693</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="F31" t="n">
-        <v>2899.154369437693</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G31" t="n">
-        <v>2899.154369437693</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H31" t="n">
-        <v>2899.154369437693</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1817.10656444305</v>
       </c>
       <c r="T31" t="n">
-        <v>4452.433056342526</v>
+        <v>1607.354736254437</v>
       </c>
       <c r="U31" t="n">
-        <v>4199.431819723335</v>
+        <v>1354.353499635246</v>
       </c>
       <c r="V31" t="n">
-        <v>3955.342985497542</v>
+        <v>1110.264665409453</v>
       </c>
       <c r="W31" t="n">
-        <v>3706.070231841101</v>
+        <v>860.9919117530121</v>
       </c>
       <c r="X31" t="n">
-        <v>3497.523280535469</v>
+        <v>652.4449604473804</v>
       </c>
       <c r="Y31" t="n">
-        <v>3302.584492758919</v>
+        <v>457.5061726708299</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764618</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.351797433622</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C34" t="n">
-        <v>354.0553358300234</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D34" t="n">
-        <v>224.3576019876184</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362207</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>609.387532025356</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749241</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P34" t="n">
-        <v>1761.542230672485</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>1856.274212784071</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.274212784071</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1856.274212784071</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T34" t="n">
-        <v>1803.103156576588</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U34" t="n">
-        <v>1550.101919957397</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V34" t="n">
-        <v>1306.013085731604</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W34" t="n">
-        <v>1056.740332075163</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X34" t="n">
-        <v>848.1933807695318</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y34" t="n">
-        <v>653.2545929929814</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>966.9017898022406</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1670.858880348135</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>887.4500370879761</v>
+        <v>615.0396711873821</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1535754843775</v>
+        <v>615.0396711873821</v>
       </c>
       <c r="D37" t="n">
-        <v>616.4558416419724</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="E37" t="n">
-        <v>485.3419373449767</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F37" t="n">
-        <v>350.5077222902529</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G37" t="n">
-        <v>213.0542420504812</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7095,22 +7095,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.20354800875</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820137</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200946</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V37" t="n">
-        <v>1181.450483200946</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W37" t="n">
-        <v>1181.450483200946</v>
+        <v>1018.525410269564</v>
       </c>
       <c r="X37" t="n">
-        <v>1181.450483200946</v>
+        <v>809.9784589639326</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.5116954243953</v>
+        <v>615.0396711873821</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
         <v>430.910136076462</v>
@@ -7204,10 +7204,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
@@ -7216,7 +7216,7 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
         <v>2721.037282963096</v>
@@ -7262,19 +7262,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>182.7137268369972</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.371818948615</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>587.03741370693</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C40" t="n">
-        <v>445.7409521033313</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="D40" t="n">
-        <v>445.7409521033313</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>314.6270478063357</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T40" t="n">
-        <v>1591.046577105541</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U40" t="n">
-        <v>1397.698702004913</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V40" t="n">
-        <v>1397.698702004913</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W40" t="n">
-        <v>1148.425948348472</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X40" t="n">
-        <v>939.8789970428401</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.9402092662896</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
         <v>404.1521950629048</v>
@@ -7444,19 +7444,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7502,16 +7502,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.216283632599</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>852.3566641950696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>852.3566641950696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>692.8620195179797</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>531.9512043862992</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>367.3200784968905</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.092362806305</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W43" t="n">
-        <v>1077.092362806305</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X43" t="n">
-        <v>1077.092362806305</v>
+        <v>405.4028154761649</v>
       </c>
       <c r="Y43" t="n">
-        <v>852.3566641950696</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2238.282892603802</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1828.158301917072</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>588.3237444807172</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>179.5954603735495</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735495</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>3833.84444401608</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>3450.084143151249</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>3049.440745320201</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2648.504072268291</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>257.8748235800314</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C46" t="n">
-        <v>257.8748235800314</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D46" t="n">
-        <v>257.8748235800314</v>
+        <v>308.996436142379</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8748235800314</v>
+        <v>308.996436142379</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>141.7460450679224</v>
       </c>
       <c r="H46" t="n">
         <v>93.2436976906228</v>
@@ -7806,52 +7806,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958334</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180715</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981322</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386256</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.878513932876</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
         <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508963</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866784</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.429368843486</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1111.429368843486</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1111.429368843486</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>832.3597043523604</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>594.0158422120439</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>369.2801436008087</v>
+        <v>308.996436142379</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.2162236769906</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666184</v>
       </c>
       <c r="M2" t="n">
-        <v>503.1143075919803</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295572</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846582</v>
+        <v>520.7291972846576</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>202.1385772741679</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883895</v>
+        <v>482.9056167883889</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1943578146231</v>
+        <v>315.0216312432469</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421915</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>272.8150999504568</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065772</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8312,13 +8312,13 @@
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>263.5046911326701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
@@ -8470,13 +8470,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,19 +8537,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>564.2543476875383</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>758.4864973512196</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>586.7544045839516</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4087459755392</v>
+        <v>178.5117997957786</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9482,7 +9482,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9491,10 +9491,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>293.7680303325975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,22 +9959,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>491.4496229341746</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>147.9380505529371</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
@@ -10922,10 +10922,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11150,10 +11150,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>527.9363279870926</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11162,7 +11162,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11387,10 +11387,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>363.0339661689075</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>51.84035121586527</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9291641035668</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.37317871913991</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>61.99830300695066</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>21.77067363142359</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.77513315269252</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.90109682534847</v>
+        <v>32.89038794068821</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.97309327085426</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.9852343599484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540256</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373739</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>81.76033598974715</v>
+        <v>77.33438985439817</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037899</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125507</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.13146727375897</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
         <v>133.4858729041767</v>
@@ -24855,10 +24855,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>116.2529368549414</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041765</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0789454373739</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037899</v>
+        <v>52.56154735369804</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501623</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125507</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>155.0149642613192</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.25272585071089</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037904</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>172.1032410887936</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>25.21219900729524</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
@@ -25569,7 +25569,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.0568279033767</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>9.42485560222417</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>99.27352434754019</v>
       </c>
     </row>
     <row r="44">
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V44" t="n">
-        <v>134.6847134965098</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.5314425095343</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139005</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.899698230319</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803636</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5778871637119</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>100.0940567390713</v>
       </c>
       <c r="I46" t="n">
-        <v>115.182585436717</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.970165979337</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>629656.7375767262</v>
+        <v>629656.7375767261</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655563.7539715357</v>
+        <v>655563.7539715358</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655563.7539715358</v>
+        <v>655563.7539715357</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655563.7539715359</v>
+        <v>655563.7539715358</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655563.7539715357</v>
+        <v>655563.7539715358</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655563.7539715358</v>
+        <v>655563.7539715357</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609975.8888348491</v>
+        <v>609975.8888348492</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609975.8888348495</v>
+        <v>609975.8888348492</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570088.3756135993</v>
+        <v>570088.3756135991</v>
       </c>
       <c r="C2" t="n">
-        <v>570088.3756135992</v>
+        <v>570088.3756135994</v>
       </c>
       <c r="D2" t="n">
-        <v>570088.3756135992</v>
+        <v>570088.3756135994</v>
       </c>
       <c r="E2" t="n">
+        <v>552473.0333231015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>552473.0333231011</v>
+      </c>
+      <c r="G2" t="n">
+        <v>552473.0333231015</v>
+      </c>
+      <c r="H2" t="n">
+        <v>552473.0333231014</v>
+      </c>
+      <c r="I2" t="n">
         <v>552473.0333231016</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>552473.0333231015</v>
+      </c>
+      <c r="K2" t="n">
+        <v>552473.0333231011</v>
+      </c>
+      <c r="L2" t="n">
         <v>552473.0333231014</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>552473.0333231015</v>
+      </c>
+      <c r="N2" t="n">
         <v>552473.0333231016</v>
       </c>
-      <c r="H2" t="n">
-        <v>552473.0333231016</v>
-      </c>
-      <c r="I2" t="n">
-        <v>552473.0333231014</v>
-      </c>
-      <c r="J2" t="n">
-        <v>552473.0333231014</v>
-      </c>
-      <c r="K2" t="n">
-        <v>552473.0333231012</v>
-      </c>
-      <c r="L2" t="n">
-        <v>552473.0333231008</v>
-      </c>
-      <c r="M2" t="n">
-        <v>552473.0333231017</v>
-      </c>
-      <c r="N2" t="n">
-        <v>552473.0333231011</v>
-      </c>
       <c r="O2" t="n">
-        <v>506885.1681864143</v>
+        <v>506885.1681864142</v>
       </c>
       <c r="P2" t="n">
         <v>506885.1681864142</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108468</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668802</v>
+        <v>30686.4608666882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805135</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691538</v>
+        <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110932</v>
+        <v>24445.77426110956</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>222716.4087914901</v>
       </c>
       <c r="D4" t="n">
-        <v>222716.40879149</v>
+        <v>222716.4087914901</v>
       </c>
       <c r="E4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="F4" t="n">
-        <v>133638.8779954488</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="G4" t="n">
         <v>133638.8779954489</v>
@@ -26438,19 +26438,19 @@
         <v>133638.8779954489</v>
       </c>
       <c r="I4" t="n">
-        <v>133638.877995449</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="J4" t="n">
-        <v>133638.877995449</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="K4" t="n">
         <v>133638.8779954489</v>
       </c>
       <c r="L4" t="n">
-        <v>133638.877995449</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="M4" t="n">
-        <v>133638.877995449</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="N4" t="n">
         <v>133638.8779954489</v>
@@ -26459,7 +26459,7 @@
         <v>103828.84857858</v>
       </c>
       <c r="P4" t="n">
-        <v>103828.8485785801</v>
+        <v>103828.84857858</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742946</v>
+        <v>59594.05390742942</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26490,19 +26490,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686482</v>
@@ -26511,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>251316.4408769236</v>
       </c>
       <c r="D6" t="n">
-        <v>282002.9017436116</v>
+        <v>282002.9017436118</v>
       </c>
       <c r="E6" t="n">
-        <v>129760.0822702744</v>
+        <v>129709.7527208728</v>
       </c>
       <c r="F6" t="n">
-        <v>345488.9985507877</v>
+        <v>345438.669001386</v>
       </c>
       <c r="G6" t="n">
-        <v>345488.9985507879</v>
+        <v>345438.6690013863</v>
       </c>
       <c r="H6" t="n">
-        <v>345488.9985507879</v>
+        <v>345438.6690013862</v>
       </c>
       <c r="I6" t="n">
-        <v>345488.9985507875</v>
+        <v>345438.6690013864</v>
       </c>
       <c r="J6" t="n">
-        <v>210146.9690816337</v>
+        <v>210096.6395322326</v>
       </c>
       <c r="K6" t="n">
-        <v>321043.2242896782</v>
+        <v>320992.8947402764</v>
       </c>
       <c r="L6" t="n">
-        <v>345488.9985507869</v>
+        <v>345438.6690013862</v>
       </c>
       <c r="M6" t="n">
-        <v>185130.5480501052</v>
+        <v>185080.2185007036</v>
       </c>
       <c r="N6" t="n">
-        <v>345488.9985507874</v>
+        <v>345438.6690013864</v>
       </c>
       <c r="O6" t="n">
-        <v>332191.109362961</v>
+        <v>332010.5287703118</v>
       </c>
       <c r="P6" t="n">
-        <v>332191.1093629608</v>
+        <v>332010.5287703118</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037741</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037741</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625149</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037741</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625149</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037741</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625149</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>184.2741357666567</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.7888856580142</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>26.68670025291735</v>
+        <v>103.9543291284543</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27545,16 +27545,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.988943419469493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>183.0282806872546</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>57.59615060634729</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>29.22367081242606</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>84.9415719158324</v>
       </c>
       <c r="T7" t="n">
-        <v>147.4646505594034</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>270.0070652693912</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>234.9848782552364</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>167.3726685750379</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633811</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="41">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="M2" t="n">
-        <v>409.8240831349348</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037741</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037741</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037741</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>112.1047728750158</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037741</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="L3" t="n">
-        <v>427.0798340037741</v>
+        <v>258.9071074323978</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037741</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>215.0636209504568</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>209.2450561298663</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
@@ -35190,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>700.9222136128021</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>530.6398807731025</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>176.8444622371217</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>240.5746369388475</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533864</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415508</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1744794983081</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754415</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.6888708197834</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533864</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415508</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1744794983081</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754415</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.6888708197834</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>90.37376681451964</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37870,10 +37870,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>474.7429345933426</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>309.8405727751575</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900065</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>156.113462345695</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152128</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>292.185915596458</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>283.6755377719701</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732063</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491035</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344541</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
